--- a/biology/Zoologie/Firmicus_bragantinus/Firmicus_bragantinus.xlsx
+++ b/biology/Zoologie/Firmicus_bragantinus/Firmicus_bragantinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Firmicus bragantinus est une espèce d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Firmicus bragantinus est une espèce d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Congo-Kinshasa, au Mozambique, en Afrique du Sud et au Soudan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Congo-Kinshasa, au Mozambique, en Afrique du Sud et au Soudan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Firmicus bragantinus mesure de 4 à 5 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Firmicus bragantinus mesure de 4 à 5 mm
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Thomisus bragantinus par Brito Capello en 1866. Elle est placée dans le genre Synaema par Lessert en 1919[3] puis dans le genre Firmicus par Roewer en 1955[4].
-Synaema quadrinotatum[5] a été placée en synonymie par Lessert en 1936[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Thomisus bragantinus par Brito Capello en 1866. Elle est placée dans le genre Synaema par Lessert en 1919 puis dans le genre Firmicus par Roewer en 1955.
+Synaema quadrinotatum a été placée en synonymie par Lessert en 1936.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Duque de Bragança.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brito Capello, 1866 : « Especies novas ou pouco conhecidas d'arachnidios d'Africa occidental. » Jornal de Sciencias Mathematicas, Physicas e Naturaes, Academia Real das Sciencias de Lisboa, vol. 1, p. 79-88.</t>
         </is>
